--- a/data/sheets/Silver.xlsx
+++ b/data/sheets/Silver.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/28aa9e46087b5738/0-Concordia_Capital/excel_to_https/excel_web_refresh/export/sheets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAC8C71A-6886-44CF-9E48-8D667841048B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{888A8A73-B845-4167-9F9F-B47249F8F7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8CAB5DD5-1EF0-4801-9BED-F8F5C1E5EB0E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E579155B-6784-45B4-8BA0-836608E59BB4}"/>
   </bookViews>
   <sheets>
-    <sheet name="Silver" sheetId="2" r:id="rId1"/>
+    <sheet name="Silver" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
@@ -48,7 +48,6 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" localSheetId="0" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">46064.7990046296</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
@@ -510,14 +509,7 @@
     <numFmt numFmtId="165" formatCode="0.0%"/>
     <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -833,348 +825,346 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="16" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="16" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="13" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="15" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="2" fillId="7" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="7" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="7" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="7" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="1" fillId="7" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="7" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="7" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="1" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{CA7C3D58-FDF9-4D6D-9EF7-474EC04B4261}"/>
-    <cellStyle name="百分比 2" xfId="2" xr:uid="{62D90258-3516-4B89-8173-1B642D447040}"/>
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1652,7 +1642,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E019441-0308-490A-9879-205D472C5524}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{070D1493-B80D-4968-A79F-CA531C82A1FE}">
   <dimension ref="A1:BZ77"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="100" workbookViewId="0">
@@ -1663,7 +1653,7 @@
       <selection pane="bottomRight" activeCell="I2678" sqref="I2678"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.2" outlineLevelRow="1" outlineLevelCol="2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.109375" style="2" hidden="1" customWidth="1" outlineLevel="2"/>
     <col min="2" max="5" width="12.77734375" style="2" hidden="1" customWidth="1" outlineLevel="2"/>
@@ -1714,7 +1704,7 @@
     <col min="78" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:78" ht="26.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1849,7 +1839,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:78" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:78" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -2053,7 +2043,7 @@
       <c r="BY2" s="34"/>
       <c r="BZ2" s="34"/>
     </row>
-    <row r="3" spans="1:78" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:78" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>49</v>
       </c>
@@ -2145,7 +2135,7 @@
       <c r="BY3" s="34"/>
       <c r="BZ3" s="34"/>
     </row>
-    <row r="4" spans="1:78" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:78" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="J4" s="20"/>
       <c r="K4" s="35"/>
       <c r="L4" s="37"/>
@@ -2197,7 +2187,7 @@
       <c r="BY4" s="34"/>
       <c r="BZ4" s="34"/>
     </row>
-    <row r="5" spans="1:78" ht="16.8" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:78" ht="16.8" collapsed="1" x14ac:dyDescent="0.25">
       <c r="H5" s="48" t="s">
         <v>79</v>
       </c>
@@ -2262,7 +2252,7 @@
       <c r="BY5" s="34"/>
       <c r="BZ5" s="34"/>
     </row>
-    <row r="6" spans="1:78" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:78" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="54" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($J6, A$3)</f>
         <v>#NAME?</v>
@@ -2559,7 +2549,7 @@
       </c>
       <c r="BZ6" s="34"/>
     </row>
-    <row r="7" spans="1:78" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:78" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A7" s="54" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($J7, A$3)</f>
         <v>#NAME?</v>
@@ -2856,7 +2846,7 @@
       </c>
       <c r="BZ7" s="34"/>
     </row>
-    <row r="8" spans="1:78" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:78" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A8" s="54" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($J8, A$3)</f>
         <v>#NAME?</v>
@@ -3153,7 +3143,7 @@
       </c>
       <c r="BZ8" s="34"/>
     </row>
-    <row r="9" spans="1:78" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:78" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A9" s="54" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($J9, A$3)</f>
         <v>#NAME?</v>
@@ -3450,7 +3440,7 @@
       </c>
       <c r="BZ9" s="34"/>
     </row>
-    <row r="10" spans="1:78" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:78" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A10" s="54" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($J10, A$3)</f>
         <v>#NAME?</v>
@@ -3747,7 +3737,7 @@
       </c>
       <c r="BZ10" s="34"/>
     </row>
-    <row r="11" spans="1:78" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:78" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A11" s="54" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($J11, A$3)</f>
         <v>#NAME?</v>
@@ -4044,7 +4034,7 @@
       </c>
       <c r="BZ11" s="34"/>
     </row>
-    <row r="12" spans="1:78" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:78" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A12" s="54" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($J12, A$3)</f>
         <v>#NAME?</v>
@@ -4522,7 +4512,7 @@
       <c r="BY13" s="34"/>
       <c r="BZ13" s="34"/>
     </row>
-    <row r="14" spans="1:78" ht="16.8" collapsed="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:78" ht="16.8" collapsed="1" x14ac:dyDescent="0.25">
       <c r="D14" s="105"/>
       <c r="E14" s="105"/>
       <c r="H14" s="48" t="s">
@@ -4589,7 +4579,7 @@
       <c r="BY14" s="34"/>
       <c r="BZ14" s="34"/>
     </row>
-    <row r="15" spans="1:78" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:78" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A15" s="54" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($J15, A$3)</f>
         <v>#NAME?</v>
@@ -4886,7 +4876,7 @@
       </c>
       <c r="BZ15" s="34"/>
     </row>
-    <row r="16" spans="1:78" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:78" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A16" s="54" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($J16, A$3)</f>
         <v>#NAME?</v>
@@ -5183,7 +5173,7 @@
       </c>
       <c r="BZ16" s="34"/>
     </row>
-    <row r="17" spans="1:78" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:78" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="54" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($J17, A$3)</f>
         <v>#NAME?</v>
@@ -5480,7 +5470,7 @@
       </c>
       <c r="BZ17" s="34"/>
     </row>
-    <row r="18" spans="1:78" ht="14.4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:78" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A18" s="54" t="e">
         <f ca="1">_xll.SNL.Clients.Office.Excel.Functions.SPG($J18, A$3)</f>
         <v>#NAME?</v>
@@ -6387,14 +6377,14 @@
       <c r="D73" s="54"/>
       <c r="E73" s="54"/>
     </row>
-    <row r="75" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:77" x14ac:dyDescent="0.25">
       <c r="A75" s="110"/>
       <c r="B75" s="110"/>
       <c r="C75" s="110"/>
       <c r="D75" s="110"/>
       <c r="E75" s="110"/>
     </row>
-    <row r="77" spans="1:77" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:77" x14ac:dyDescent="0.25">
       <c r="BW77" s="110"/>
       <c r="BX77" s="110"/>
       <c r="BY77" s="110"/>
